--- a/Documentation/Sprint Backlog 3.xlsx
+++ b/Documentation/Sprint Backlog 3.xlsx
@@ -59,9 +59,6 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>Spring 1: Total Hours remaining</t>
-  </si>
-  <si>
     <t>SPRINT BACKLOG</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Discuss input methods with students</t>
-  </si>
-  <si>
-    <t>Sprint 1: Ideal hours remaining:</t>
   </si>
   <si>
     <t>Acceptance testing</t>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>1.2 - As a student I want to be able to give feedback on how interactive the class was (and why)</t>
+  </si>
+  <si>
+    <t>Sprint 3: Ideal hours remaining:</t>
+  </si>
+  <si>
+    <t>Spring 3: Total Hours remaining</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1: Ideal hours remaining:</c:v>
+                  <c:v>Sprint 3: Ideal hours remaining:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -702,7 +702,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spring 1: Total Hours remaining</c:v>
+                  <c:v>Spring 3: Total Hours remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -782,11 +782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1018935200"/>
-        <c:axId val="1018937920"/>
+        <c:axId val="979486176"/>
+        <c:axId val="979484544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1018935200"/>
+        <c:axId val="979486176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1018937920"/>
+        <c:crossAx val="979484544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1018937920"/>
+        <c:axId val="979484544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1018935200"/>
+        <c:crossAx val="979486176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,7 +1812,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,7 +1824,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8">
         <v>2</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -2553,7 +2553,7 @@
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D28" s="21">
         <v>18</v>
@@ -2590,46 +2590,46 @@
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D29" s="12">
-        <f>SUM(D11:D26)</f>
+        <f t="shared" ref="D29:M29" si="0">SUM(D11:D26)</f>
         <v>18</v>
       </c>
       <c r="E29" s="12">
-        <f>SUM(E11:E26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F29" s="12">
-        <f>SUM(F11:F26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G29" s="12">
-        <f>SUM(G11:G26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H29" s="12">
-        <f>SUM(H11:H26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I29" s="12">
-        <f>SUM(I11:I26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J29" s="12">
-        <f>SUM(J11:J26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K29" s="12">
-        <f>SUM(K11:K26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L29" s="12">
-        <f>SUM(L11:L26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="12">
-        <f>SUM(M11:M26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
